--- a/main/python_package/geodata_berlin/data/other/districts/Statistik_Berlin_Brandenburg/manual_split/14_Einwohners_in_Berlin_am_31_Dezember_2023_nach_PLZ_Alter_gender.xlsx
+++ b/main/python_package/geodata_berlin/data/other/districts/Statistik_Berlin_Brandenburg/manual_split/14_Einwohners_in_Berlin_am_31_Dezember_2023_nach_PLZ_Alter_gender.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente_D\Gits\geodata_berlin\main\python_package\geodata_berlin\data\other\districts\Statistik_Berlin_Brandenburg\manual_split\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B112EB-EBE7-496A-B01E-6ED54D9DB28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33D9EFA-E93A-4113-8001-8B491FA109B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>10178</t>
   </si>
   <si>
-    <t>Friedrichsh.-Kreuzb.</t>
-  </si>
-  <si>
     <t>10179</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>10585</t>
   </si>
   <si>
-    <t>Charlbg.-Wilmersd.</t>
-  </si>
-  <si>
     <t>10587</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>10777</t>
   </si>
   <si>
-    <t>Tempelh.-Schöneb.</t>
-  </si>
-  <si>
     <t>10779</t>
   </si>
   <si>
@@ -273,9 +264,6 @@
     <t>12157</t>
   </si>
   <si>
-    <t>Steglitz-Zehlend.</t>
-  </si>
-  <si>
     <t>12159</t>
   </si>
   <si>
@@ -381,9 +369,6 @@
     <t>12555</t>
   </si>
   <si>
-    <t>Marzahn-Hellersd.</t>
-  </si>
-  <si>
     <t>12557</t>
   </si>
   <si>
@@ -667,13 +652,28 @@
   </si>
   <si>
     <t>female_share</t>
+  </si>
+  <si>
+    <t>Friedrichshain-Kreuzberg</t>
+  </si>
+  <si>
+    <t>Charlottenburg-Wilmersdorf</t>
+  </si>
+  <si>
+    <t>Tempelhof-Schöneberg</t>
+  </si>
+  <si>
+    <t>Steglitz-Zehlendorf</t>
+  </si>
+  <si>
+    <t>Marzahn-Hellersdorf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,12 +689,6 @@
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -736,25 +730,25 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" customBuiltin="1"/>
@@ -1042,47 +1036,47 @@
   <dimension ref="A1:L238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1242,7 +1236,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="C6" s="4">
         <v>72</v>
@@ -1315,10 +1309,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="C8" s="4">
         <v>444</v>
@@ -1353,7 +1347,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -1391,10 +1385,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="C10" s="4">
         <v>33257</v>
@@ -1429,10 +1423,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="C11" s="4">
         <v>37480</v>
@@ -1467,10 +1461,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="C12" s="4">
         <v>40109</v>
@@ -1505,7 +1499,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -1543,10 +1537,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="C14" s="4">
         <v>29876</v>
@@ -1581,7 +1575,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
@@ -1619,10 +1613,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C16" s="4">
         <v>37224</v>
@@ -1657,10 +1651,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4">
         <v>25891</v>
@@ -1695,10 +1689,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4">
         <v>30981</v>
@@ -1733,10 +1727,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4">
         <v>27462</v>
@@ -1771,10 +1765,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4">
         <v>29075</v>
@@ -1809,10 +1803,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="4">
         <v>22853</v>
@@ -1847,10 +1841,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="4">
         <v>21160</v>
@@ -1885,7 +1879,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
@@ -1923,7 +1917,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
@@ -1961,7 +1955,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
@@ -1999,7 +1993,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
@@ -2037,7 +2031,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -2075,7 +2069,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
@@ -2113,7 +2107,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
@@ -2151,7 +2145,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>1</v>
@@ -2189,7 +2183,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>1</v>
@@ -2227,7 +2221,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>1</v>
@@ -2265,7 +2259,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>1</v>
@@ -2303,7 +2297,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1</v>
@@ -2341,10 +2335,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C35" s="4">
         <v>15667</v>
@@ -2379,10 +2373,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C36" s="4">
         <v>14388</v>
@@ -2417,10 +2411,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C37" s="4">
         <v>15595</v>
@@ -2455,10 +2449,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C38" s="4">
         <v>6741</v>
@@ -2493,7 +2487,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>1</v>
@@ -2531,10 +2525,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C40" s="4">
         <v>11558</v>
@@ -2569,10 +2563,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C41" s="4">
         <v>13470</v>
@@ -2607,10 +2601,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C42" s="4">
         <v>13717</v>
@@ -2645,10 +2639,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C43" s="4">
         <v>13498</v>
@@ -2683,10 +2677,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C44" s="4">
         <v>10798</v>
@@ -2721,10 +2715,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C45" s="4">
         <v>11786</v>
@@ -2759,10 +2753,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C46" s="4">
         <v>13278</v>
@@ -2797,10 +2791,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C47" s="4">
         <v>17421</v>
@@ -2835,10 +2829,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C48" s="4">
         <v>17380</v>
@@ -2873,10 +2867,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C49" s="4">
         <v>10457</v>
@@ -2911,10 +2905,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C50" s="4">
         <v>3323</v>
@@ -2949,10 +2943,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C51" s="4">
         <v>9876</v>
@@ -2987,10 +2981,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C52" s="4">
         <v>2341</v>
@@ -3025,10 +3019,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C53" s="4">
         <v>6816</v>
@@ -3063,10 +3057,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C54" s="4">
         <v>13841</v>
@@ -3101,10 +3095,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C55" s="4">
         <v>12182</v>
@@ -3139,10 +3133,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="C56" s="4">
         <v>1269</v>
@@ -3177,7 +3171,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>1</v>
@@ -3215,10 +3209,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C58" s="4">
         <v>1493</v>
@@ -3253,10 +3247,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C59" s="4">
         <v>95</v>
@@ -3291,7 +3285,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>1</v>
@@ -3329,10 +3323,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C61" s="4">
         <v>3728</v>
@@ -3367,10 +3361,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C62" s="4">
         <v>3092</v>
@@ -3405,10 +3399,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C63" s="4">
         <v>2036</v>
@@ -3443,10 +3437,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C64" s="4">
         <v>8976</v>
@@ -3481,10 +3475,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C65" s="4">
         <v>452</v>
@@ -3519,10 +3513,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C66" s="4">
         <v>10796</v>
@@ -3557,10 +3551,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C67" s="4">
         <v>16208</v>
@@ -3595,10 +3589,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C68" s="4">
         <v>16670</v>
@@ -3633,10 +3627,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="C69" s="4">
         <v>19525</v>
@@ -3671,10 +3665,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="C70" s="4">
         <v>15037</v>
@@ -3709,7 +3703,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>1</v>
@@ -3747,10 +3741,10 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="C72" s="4">
         <v>19078</v>
@@ -3785,10 +3779,10 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C73" s="4">
         <v>9</v>
@@ -3823,10 +3817,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C74" s="4">
         <v>3031</v>
@@ -3861,10 +3855,10 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="C75" s="4">
         <v>18567</v>
@@ -3899,10 +3893,10 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C76" s="4">
         <v>2417</v>
@@ -3937,10 +3931,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="C77" s="4">
         <v>28618</v>
@@ -3975,10 +3969,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="C78" s="4">
         <v>25270</v>
@@ -4013,10 +4007,10 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="C79" s="4">
         <v>24852</v>
@@ -4051,10 +4045,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C80" s="4">
         <v>14989</v>
@@ -4089,10 +4083,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C81" s="4">
         <v>15679</v>
@@ -4127,10 +4121,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C82" s="4">
         <v>15406</v>
@@ -4165,10 +4159,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C83" s="4">
         <v>20058</v>
@@ -4203,10 +4197,10 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C84" s="4">
         <v>27002</v>
@@ -4241,10 +4235,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C85" s="4">
         <v>18565</v>
@@ -4279,10 +4273,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C86" s="4">
         <v>14835</v>
@@ -4317,10 +4311,10 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C87" s="4">
         <v>16334</v>
@@ -4355,10 +4349,10 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C88" s="4">
         <v>18680</v>
@@ -4393,10 +4387,10 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C89" s="4">
         <v>677</v>
@@ -4431,10 +4425,10 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C90" s="4">
         <v>16452</v>
@@ -4469,10 +4463,10 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C91" s="4">
         <v>17214</v>
@@ -4507,10 +4501,10 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C92" s="4">
         <v>22095</v>
@@ -4545,10 +4539,10 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C93" s="4">
         <v>25042</v>
@@ -4583,10 +4577,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C94" s="4">
         <v>261</v>
@@ -4621,10 +4615,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C95" s="4">
         <v>21373</v>
@@ -4659,10 +4653,10 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C96" s="4">
         <v>16465</v>
@@ -4697,10 +4691,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C97" s="4">
         <v>7902</v>
@@ -4735,10 +4729,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C98" s="4">
         <v>12162</v>
@@ -4773,10 +4767,10 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C99" s="4">
         <v>16161</v>
@@ -4811,10 +4805,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C100" s="4">
         <v>1649</v>
@@ -4849,10 +4843,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C101" s="4">
         <v>16444</v>
@@ -4887,10 +4881,10 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C102" s="4">
         <v>19689</v>
@@ -4925,10 +4919,10 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C103" s="4">
         <v>363</v>
@@ -4963,10 +4957,10 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C104" s="4">
         <v>5222</v>
@@ -5001,10 +4995,10 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C105" s="4">
         <v>20504</v>
@@ -5039,10 +5033,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C106" s="4">
         <v>18011</v>
@@ -5077,10 +5071,10 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C107" s="4">
         <v>21832</v>
@@ -5115,10 +5109,10 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C108" s="4">
         <v>16102</v>
@@ -5153,10 +5147,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C109" s="4">
         <v>24392</v>
@@ -5191,10 +5185,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C110" s="4">
         <v>15793</v>
@@ -5229,10 +5223,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C111" s="4">
         <v>21560</v>
@@ -5267,10 +5261,10 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C112" s="4">
         <v>24704</v>
@@ -5305,10 +5299,10 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C113" s="4">
         <v>719</v>
@@ -5343,10 +5337,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C114" s="4">
         <v>45</v>
@@ -5381,10 +5375,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C115" s="4">
         <v>14639</v>
@@ -5419,10 +5413,10 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C116" s="4">
         <v>49</v>
@@ -5457,10 +5451,10 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C117" s="4">
         <v>17622</v>
@@ -5495,10 +5489,10 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C118" s="4">
         <v>140</v>
@@ -5533,10 +5527,10 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C119" s="4">
         <v>21471</v>
@@ -5571,10 +5565,10 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C120" s="4">
         <v>13073</v>
@@ -5609,10 +5603,10 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C121" s="4">
         <v>17548</v>
@@ -5647,10 +5641,10 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C122" s="4">
         <v>21007</v>
@@ -5685,10 +5679,10 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C123" s="4">
         <v>3</v>
@@ -5723,10 +5717,10 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C124" s="4">
         <v>22658</v>
@@ -5761,10 +5755,10 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C125" s="4">
         <v>20849</v>
@@ -5799,10 +5793,10 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C126" s="4">
         <v>35292</v>
@@ -5837,10 +5831,10 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C127" s="4">
         <v>28493</v>
@@ -5875,10 +5869,10 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C128" s="4">
         <v>15096</v>
@@ -5913,10 +5907,10 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C129" s="4">
         <v>21570</v>
@@ -5951,10 +5945,10 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C130" s="4">
         <v>19680</v>
@@ -5989,10 +5983,10 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C131" s="4">
         <v>24349</v>
@@ -6027,10 +6021,10 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C132" s="4">
         <v>14390</v>
@@ -6065,10 +6059,10 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C133" s="4">
         <v>25355</v>
@@ -6103,10 +6097,10 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C134" s="4">
         <v>21379</v>
@@ -6141,10 +6135,10 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C135" s="4">
         <v>22186</v>
@@ -6179,10 +6173,10 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C136" s="4">
         <v>31501</v>
@@ -6217,10 +6211,10 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C137" s="4">
         <v>14910</v>
@@ -6255,10 +6249,10 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C138" s="4">
         <v>12767</v>
@@ -6293,10 +6287,10 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="C139" s="4">
         <v>3</v>
@@ -6331,10 +6325,10 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C140" s="4">
         <v>32737</v>
@@ -6369,10 +6363,10 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C141" s="4">
         <v>25645</v>
@@ -6407,10 +6401,10 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C142" s="4">
         <v>19262</v>
@@ -6445,10 +6439,10 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C143" s="4">
         <v>19194</v>
@@ -6483,10 +6477,10 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C144" s="4">
         <v>10723</v>
@@ -6521,10 +6515,10 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="C145" s="4">
         <v>28899</v>
@@ -6559,10 +6553,10 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="C146" s="4">
         <v>17629</v>
@@ -6597,10 +6591,10 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="C147" s="4">
         <v>31367</v>
@@ -6635,10 +6629,10 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -6673,10 +6667,10 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="C149" s="4">
         <v>45350</v>
@@ -6711,10 +6705,10 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="C150" s="4">
         <v>19912</v>
@@ -6749,10 +6743,10 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="C151" s="4">
         <v>29480</v>
@@ -6787,10 +6781,10 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C152" s="4">
         <v>3</v>
@@ -6825,10 +6819,10 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="C153" s="4">
         <v>20083</v>
@@ -6863,10 +6857,10 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="C154" s="4">
         <v>31383</v>
@@ -6901,10 +6895,10 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="C155" s="4">
         <v>22060</v>
@@ -6939,10 +6933,10 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="C156" s="4">
         <v>20659</v>
@@ -6977,10 +6971,10 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="C157" s="4">
         <v>25123</v>
@@ -7015,10 +7009,10 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C158" s="4">
         <v>23169</v>
@@ -7053,10 +7047,10 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C159" s="4">
         <v>23762</v>
@@ -7091,10 +7085,10 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C160" s="4">
         <v>34064</v>
@@ -7129,10 +7123,10 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C161" s="4">
         <v>19756</v>
@@ -7167,10 +7161,10 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C162" s="4">
         <v>16481</v>
@@ -7205,7 +7199,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>4</v>
@@ -7243,7 +7237,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>4</v>
@@ -7281,7 +7275,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>4</v>
@@ -7319,7 +7313,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>4</v>
@@ -7357,7 +7351,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>4</v>
@@ -7395,7 +7389,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>4</v>
@@ -7433,7 +7427,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>4</v>
@@ -7471,10 +7465,10 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C170" s="4">
         <v>3</v>
@@ -7509,7 +7503,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>4</v>
@@ -7547,7 +7541,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>4</v>
@@ -7585,7 +7579,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>4</v>
@@ -7623,7 +7617,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>4</v>
@@ -7661,7 +7655,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>1</v>
@@ -7699,7 +7693,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>1</v>
@@ -7737,7 +7731,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>1</v>
@@ -7775,7 +7769,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>1</v>
@@ -7813,7 +7807,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>1</v>
@@ -7851,7 +7845,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>1</v>
@@ -7889,7 +7883,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>1</v>
@@ -7927,10 +7921,10 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C182" s="4">
         <v>31614</v>
@@ -7965,7 +7959,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>1</v>
@@ -8003,10 +7997,10 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C184" s="4">
         <v>6148</v>
@@ -8041,7 +8035,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>1</v>
@@ -8079,10 +8073,10 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C186" s="4">
         <v>23705</v>
@@ -8117,7 +8111,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>1</v>
@@ -8155,10 +8149,10 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C188" s="4">
         <v>29458</v>
@@ -8193,10 +8187,10 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C189" s="4">
         <v>20845</v>
@@ -8231,10 +8225,10 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C190" s="4">
         <v>15816</v>
@@ -8269,10 +8263,10 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C191" s="4">
         <v>22851</v>
@@ -8307,10 +8301,10 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C192" s="4">
         <v>17110</v>
@@ -8345,10 +8339,10 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C193" s="4">
         <v>15900</v>
@@ -8383,10 +8377,10 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C194" s="4">
         <v>18724</v>
@@ -8421,10 +8415,10 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C195" s="4">
         <v>17835</v>
@@ -8459,10 +8453,10 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C196" s="4">
         <v>6623</v>
@@ -8497,10 +8491,10 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C197" s="4">
         <v>23966</v>
@@ -8535,10 +8529,10 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C198" s="4">
         <v>17194</v>
@@ -8573,10 +8567,10 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C199" s="4">
         <v>16194</v>
@@ -8611,10 +8605,10 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C200" s="4">
         <v>23835</v>
@@ -8649,10 +8643,10 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C201" s="4">
         <v>26453</v>
@@ -8687,10 +8681,10 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C202" s="4">
         <v>26803</v>
@@ -8725,10 +8719,10 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C203" s="4">
         <v>23903</v>
@@ -8763,10 +8757,10 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C204" s="4">
         <v>29873</v>
@@ -8801,10 +8795,10 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C205" s="4">
         <v>23566</v>
@@ -8839,10 +8833,10 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C206" s="4">
         <v>22768</v>
@@ -8877,10 +8871,10 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C207" s="4">
         <v>3</v>
@@ -8915,10 +8909,10 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C208" s="4">
         <v>10878</v>
@@ -8953,10 +8947,10 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C209" s="4">
         <v>107</v>
@@ -8991,10 +8985,10 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C210" s="4">
         <v>20355</v>
@@ -9029,10 +9023,10 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C211" s="4">
         <v>19322</v>
@@ -9067,7 +9061,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>1</v>
@@ -9105,10 +9099,10 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C213" s="4">
         <v>3</v>
@@ -9143,10 +9137,10 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C214" s="4">
         <v>98</v>
@@ -9181,10 +9175,10 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C215" s="4">
         <v>893</v>
@@ -9219,10 +9213,10 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C216" s="4">
         <v>12407</v>
@@ -9257,10 +9251,10 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C217" s="4">
         <v>11378</v>
@@ -9295,10 +9289,10 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C218" s="4">
         <v>12749</v>
@@ -9333,10 +9327,10 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C219" s="4">
         <v>236</v>
@@ -9371,10 +9365,10 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C220" s="4">
         <v>11521</v>
@@ -9409,10 +9403,10 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C221" s="4">
         <v>14734</v>
@@ -9447,10 +9441,10 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C222" s="4">
         <v>23701</v>
@@ -9485,10 +9479,10 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C223" s="4">
         <v>20053</v>
@@ -9523,10 +9517,10 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C224" s="4">
         <v>11298</v>
@@ -9561,10 +9555,10 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C225" s="4">
         <v>15470</v>
@@ -9599,10 +9593,10 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C226" s="4">
         <v>17031</v>
@@ -9637,10 +9631,10 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C227" s="4">
         <v>15517</v>
@@ -9675,10 +9669,10 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C228" s="4">
         <v>18878</v>
@@ -9713,10 +9707,10 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C229" s="4">
         <v>18581</v>
@@ -9751,10 +9745,10 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C230" s="4">
         <v>18216</v>
@@ -9789,10 +9783,10 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C231" s="4">
         <v>12</v>
@@ -9827,10 +9821,10 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C232" s="4">
         <v>1265</v>
@@ -9865,10 +9859,10 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C233" s="4">
         <v>15791</v>
@@ -9903,10 +9897,10 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C234" s="4">
         <v>17229</v>
@@ -9941,10 +9935,10 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C235" s="4">
         <v>386</v>
@@ -9979,10 +9973,10 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="C236" s="4">
         <v>1369</v>
@@ -10017,10 +10011,10 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="C237" s="4">
         <v>17572</v>
@@ -10055,10 +10049,10 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C238" s="4">
         <v>28</v>

--- a/main/python_package/geodata_berlin/data/other/districts/Statistik_Berlin_Brandenburg/manual_split/14_Einwohners_in_Berlin_am_31_Dezember_2023_nach_PLZ_Alter_gender.xlsx
+++ b/main/python_package/geodata_berlin/data/other/districts/Statistik_Berlin_Brandenburg/manual_split/14_Einwohners_in_Berlin_am_31_Dezember_2023_nach_PLZ_Alter_gender.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente_D\Gits\geodata_berlin\main\python_package\geodata_berlin\data\other\districts\Statistik_Berlin_Brandenburg\manual_split\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33D9EFA-E93A-4113-8001-8B491FA109B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC68BA39-474F-460E-ACCE-D18A3B4D68AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,9 +621,6 @@
     <t>PLZ</t>
   </si>
   <si>
-    <t>disctrict</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -667,6 +664,9 @@
   </si>
   <si>
     <t>Marzahn-Hellersdorf</t>
+  </si>
+  <si>
+    <t>district</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:L238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,37 +1046,37 @@
         <v>197</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1236,7 +1236,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="4">
         <v>72</v>
@@ -1312,7 +1312,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C8" s="4">
         <v>444</v>
@@ -1388,7 +1388,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C10" s="4">
         <v>33257</v>
@@ -1426,7 +1426,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C11" s="4">
         <v>37480</v>
@@ -1464,7 +1464,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" s="4">
         <v>40109</v>
@@ -1540,7 +1540,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C14" s="4">
         <v>29876</v>
@@ -2338,7 +2338,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C35" s="4">
         <v>15667</v>
@@ -2376,7 +2376,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C36" s="4">
         <v>14388</v>
@@ -2414,7 +2414,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C37" s="4">
         <v>15595</v>
@@ -2452,7 +2452,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C38" s="4">
         <v>6741</v>
@@ -2528,7 +2528,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C40" s="4">
         <v>11558</v>
@@ -2566,7 +2566,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C41" s="4">
         <v>13470</v>
@@ -2604,7 +2604,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C42" s="4">
         <v>13717</v>
@@ -2642,7 +2642,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C43" s="4">
         <v>13498</v>
@@ -2680,7 +2680,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C44" s="4">
         <v>10798</v>
@@ -2718,7 +2718,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C45" s="4">
         <v>11786</v>
@@ -2756,7 +2756,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C46" s="4">
         <v>13278</v>
@@ -2794,7 +2794,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C47" s="4">
         <v>17421</v>
@@ -2832,7 +2832,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C48" s="4">
         <v>17380</v>
@@ -2870,7 +2870,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C49" s="4">
         <v>10457</v>
@@ -2908,7 +2908,7 @@
         <v>44</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C50" s="4">
         <v>3323</v>
@@ -2946,7 +2946,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C51" s="4">
         <v>9876</v>
@@ -2984,7 +2984,7 @@
         <v>45</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C52" s="4">
         <v>2341</v>
@@ -3022,7 +3022,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C53" s="4">
         <v>6816</v>
@@ -3060,7 +3060,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C54" s="4">
         <v>13841</v>
@@ -3098,7 +3098,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C55" s="4">
         <v>12182</v>
@@ -3136,7 +3136,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C56" s="4">
         <v>1269</v>
@@ -3212,7 +3212,7 @@
         <v>48</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C58" s="4">
         <v>1493</v>
@@ -3250,7 +3250,7 @@
         <v>49</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C59" s="4">
         <v>95</v>
@@ -3326,7 +3326,7 @@
         <v>49</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C61" s="4">
         <v>3728</v>
@@ -3364,7 +3364,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C62" s="4">
         <v>3092</v>
@@ -3402,7 +3402,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C63" s="4">
         <v>2036</v>
@@ -3440,7 +3440,7 @@
         <v>51</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C64" s="4">
         <v>8976</v>
@@ -3478,7 +3478,7 @@
         <v>52</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C65" s="4">
         <v>452</v>
@@ -3516,7 +3516,7 @@
         <v>52</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C66" s="4">
         <v>10796</v>
@@ -3554,7 +3554,7 @@
         <v>53</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C67" s="4">
         <v>16208</v>
@@ -3592,7 +3592,7 @@
         <v>54</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C68" s="4">
         <v>16670</v>
@@ -3630,7 +3630,7 @@
         <v>55</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C69" s="4">
         <v>19525</v>
@@ -3668,7 +3668,7 @@
         <v>56</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C70" s="4">
         <v>15037</v>
@@ -3744,7 +3744,7 @@
         <v>57</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C72" s="4">
         <v>19078</v>
@@ -3820,7 +3820,7 @@
         <v>57</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C74" s="4">
         <v>3031</v>
@@ -3858,7 +3858,7 @@
         <v>59</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C75" s="4">
         <v>18567</v>
@@ -3934,7 +3934,7 @@
         <v>60</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C77" s="4">
         <v>28618</v>
@@ -3972,7 +3972,7 @@
         <v>61</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C78" s="4">
         <v>25270</v>
@@ -4010,7 +4010,7 @@
         <v>62</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C79" s="4">
         <v>24852</v>
@@ -4428,7 +4428,7 @@
         <v>72</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C90" s="4">
         <v>16452</v>
@@ -4466,7 +4466,7 @@
         <v>73</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C91" s="4">
         <v>17214</v>
@@ -4504,7 +4504,7 @@
         <v>74</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C92" s="4">
         <v>22095</v>
@@ -4542,7 +4542,7 @@
         <v>75</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C93" s="4">
         <v>25042</v>
@@ -4618,7 +4618,7 @@
         <v>76</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C95" s="4">
         <v>21373</v>
@@ -4656,7 +4656,7 @@
         <v>77</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C96" s="4">
         <v>16465</v>
@@ -4694,7 +4694,7 @@
         <v>78</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C97" s="4">
         <v>7902</v>
@@ -4732,7 +4732,7 @@
         <v>78</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C98" s="4">
         <v>12162</v>
@@ -4770,7 +4770,7 @@
         <v>79</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C99" s="4">
         <v>16161</v>
@@ -4808,7 +4808,7 @@
         <v>80</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C100" s="4">
         <v>1649</v>
@@ -4846,7 +4846,7 @@
         <v>80</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C101" s="4">
         <v>16444</v>
@@ -4884,7 +4884,7 @@
         <v>81</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C102" s="4">
         <v>19689</v>
@@ -4922,7 +4922,7 @@
         <v>81</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C103" s="4">
         <v>363</v>
@@ -4960,7 +4960,7 @@
         <v>82</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C104" s="4">
         <v>5222</v>
@@ -4998,7 +4998,7 @@
         <v>83</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C105" s="4">
         <v>20504</v>
@@ -5036,7 +5036,7 @@
         <v>84</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C106" s="4">
         <v>18011</v>
@@ -5074,7 +5074,7 @@
         <v>85</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C107" s="4">
         <v>21832</v>
@@ -5112,7 +5112,7 @@
         <v>86</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C108" s="4">
         <v>16102</v>
@@ -5150,7 +5150,7 @@
         <v>87</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C109" s="4">
         <v>24392</v>
@@ -5188,7 +5188,7 @@
         <v>88</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C110" s="4">
         <v>15793</v>
@@ -5226,7 +5226,7 @@
         <v>89</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C111" s="4">
         <v>21560</v>
@@ -5264,7 +5264,7 @@
         <v>90</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C112" s="4">
         <v>24704</v>
@@ -5302,7 +5302,7 @@
         <v>90</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C113" s="4">
         <v>719</v>
@@ -5340,7 +5340,7 @@
         <v>91</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C114" s="4">
         <v>45</v>
@@ -5378,7 +5378,7 @@
         <v>91</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C115" s="4">
         <v>14639</v>
@@ -5416,7 +5416,7 @@
         <v>92</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C116" s="4">
         <v>49</v>
@@ -5454,7 +5454,7 @@
         <v>92</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C117" s="4">
         <v>17622</v>
@@ -5530,7 +5530,7 @@
         <v>93</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C119" s="4">
         <v>21471</v>
@@ -5568,7 +5568,7 @@
         <v>94</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C120" s="4">
         <v>13073</v>
@@ -5606,7 +5606,7 @@
         <v>95</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C121" s="4">
         <v>17548</v>
@@ -5682,7 +5682,7 @@
         <v>96</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C123" s="4">
         <v>3</v>
@@ -6290,7 +6290,7 @@
         <v>113</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C139" s="4">
         <v>3</v>
@@ -6518,7 +6518,7 @@
         <v>118</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C145" s="4">
         <v>28899</v>
@@ -6556,7 +6556,7 @@
         <v>119</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C146" s="4">
         <v>17629</v>
@@ -6594,7 +6594,7 @@
         <v>120</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C147" s="4">
         <v>31367</v>
@@ -6670,7 +6670,7 @@
         <v>121</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C149" s="4">
         <v>45350</v>
@@ -6708,7 +6708,7 @@
         <v>122</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C150" s="4">
         <v>19912</v>
@@ -6746,7 +6746,7 @@
         <v>123</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C151" s="4">
         <v>29480</v>
@@ -6822,7 +6822,7 @@
         <v>124</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C153" s="4">
         <v>20083</v>
@@ -6860,7 +6860,7 @@
         <v>125</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C154" s="4">
         <v>31383</v>
@@ -6898,7 +6898,7 @@
         <v>126</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C155" s="4">
         <v>22060</v>
@@ -6936,7 +6936,7 @@
         <v>127</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C156" s="4">
         <v>20659</v>
@@ -6974,7 +6974,7 @@
         <v>128</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C157" s="4">
         <v>25123</v>
@@ -8874,7 +8874,7 @@
         <v>176</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C207" s="4">
         <v>3</v>
@@ -9026,7 +9026,7 @@
         <v>178</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C211" s="4">
         <v>19322</v>
@@ -9140,7 +9140,7 @@
         <v>179</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C214" s="4">
         <v>98</v>
@@ -9254,7 +9254,7 @@
         <v>180</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C217" s="4">
         <v>11378</v>
@@ -9292,7 +9292,7 @@
         <v>181</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C218" s="4">
         <v>12749</v>
@@ -9330,7 +9330,7 @@
         <v>182</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C219" s="4">
         <v>236</v>
@@ -9368,7 +9368,7 @@
         <v>183</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C220" s="4">
         <v>11521</v>
@@ -9406,7 +9406,7 @@
         <v>184</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C221" s="4">
         <v>14734</v>
@@ -9444,7 +9444,7 @@
         <v>185</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C222" s="4">
         <v>23701</v>
@@ -9520,7 +9520,7 @@
         <v>187</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C224" s="4">
         <v>11298</v>
@@ -9558,7 +9558,7 @@
         <v>188</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C225" s="4">
         <v>15470</v>
@@ -9596,7 +9596,7 @@
         <v>189</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C226" s="4">
         <v>17031</v>
@@ -9634,7 +9634,7 @@
         <v>190</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C227" s="4">
         <v>15517</v>
@@ -9672,7 +9672,7 @@
         <v>191</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C228" s="4">
         <v>18878</v>
@@ -9710,7 +9710,7 @@
         <v>192</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C229" s="4">
         <v>18581</v>
@@ -9748,7 +9748,7 @@
         <v>193</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C230" s="4">
         <v>18216</v>
@@ -9786,7 +9786,7 @@
         <v>193</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C231" s="4">
         <v>12</v>
@@ -9824,7 +9824,7 @@
         <v>194</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C232" s="4">
         <v>1265</v>
@@ -9862,7 +9862,7 @@
         <v>194</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C233" s="4">
         <v>15791</v>
@@ -9900,7 +9900,7 @@
         <v>195</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C234" s="4">
         <v>17229</v>
@@ -9938,7 +9938,7 @@
         <v>195</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C235" s="4">
         <v>386</v>
@@ -9976,7 +9976,7 @@
         <v>195</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C236" s="4">
         <v>1369</v>
@@ -10014,7 +10014,7 @@
         <v>196</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C237" s="4">
         <v>17572</v>
@@ -10052,7 +10052,7 @@
         <v>196</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C238" s="4">
         <v>28</v>

--- a/main/python_package/geodata_berlin/data/other/districts/Statistik_Berlin_Brandenburg/manual_split/14_Einwohners_in_Berlin_am_31_Dezember_2023_nach_PLZ_Alter_gender.xlsx
+++ b/main/python_package/geodata_berlin/data/other/districts/Statistik_Berlin_Brandenburg/manual_split/14_Einwohners_in_Berlin_am_31_Dezember_2023_nach_PLZ_Alter_gender.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente_D\Gits\geodata_berlin\main\python_package\geodata_berlin\data\other\districts\Statistik_Berlin_Brandenburg\manual_split\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC68BA39-474F-460E-ACCE-D18A3B4D68AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1727D613-4578-46C8-8E8C-6E03EE3BE85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,7 +666,7 @@
     <t>Marzahn-Hellersdorf</t>
   </si>
   <si>
-    <t>district</t>
+    <t>district_name</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:L238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
